--- a/excel/file/example.xlsx
+++ b/excel/file/example.xlsx
@@ -1053,7 +1053,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1176,14 +1176,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF538DD5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1212,6 +1204,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1345,24 +1338,25 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145348864"/>
-        <c:axId val="146018688"/>
+        <c:axId val="214034688"/>
+        <c:axId val="215228800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145348864"/>
+        <c:axId val="214034688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146018688"/>
+        <c:crossAx val="215228800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1370,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146018688"/>
+        <c:axId val="215228800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1380,6 +1374,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="0" vert="wordArtVertRtl"/>
@@ -1396,13 +1391,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145348864"/>
+        <c:crossAx val="214034688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1543,8 +1539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146050432"/>
-        <c:axId val="146052224"/>
+        <c:axId val="215260544"/>
+        <c:axId val="215262336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1631,11 +1627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146059648"/>
-        <c:axId val="146053760"/>
+        <c:axId val="215265664"/>
+        <c:axId val="215263872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146050432"/>
+        <c:axId val="215260544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146052224"/>
+        <c:crossAx val="215262336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146052224"/>
+        <c:axId val="215262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,12 +1660,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146050432"/>
+        <c:crossAx val="215260544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146053760"/>
+        <c:axId val="215263872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,12 +1675,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146059648"/>
+        <c:crossAx val="215265664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="146059648"/>
+        <c:axId val="215265664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146053760"/>
+        <c:crossAx val="215263872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1738,7 +1734,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1772,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4848,7 +4844,7 @@
       </c>
       <c r="B182" s="10">
         <f ca="1">TODAY()</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -4921,7 +4917,7 @@
       </c>
       <c r="B190" s="11">
         <f ca="1">NOW()</f>
-        <v>45083.445166435187</v>
+        <v>45084.070201620372</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -4930,7 +4926,7 @@
       </c>
       <c r="B191">
         <f ca="1">WEEKDAY(B190,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">

--- a/excel/file/example.xlsx
+++ b/excel/file/example.xlsx
@@ -1204,7 +1204,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1338,25 +1337,24 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214034688"/>
-        <c:axId val="215228800"/>
+        <c:axId val="166640640"/>
+        <c:axId val="166651008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214034688"/>
+        <c:axId val="166640640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215228800"/>
+        <c:crossAx val="166651008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215228800"/>
+        <c:axId val="166651008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1374,7 +1372,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="0" vert="wordArtVertRtl"/>
@@ -1391,14 +1388,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214034688"/>
+        <c:crossAx val="166640640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1539,8 +1535,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215260544"/>
-        <c:axId val="215262336"/>
+        <c:axId val="167362944"/>
+        <c:axId val="167364480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1627,11 +1623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215265664"/>
-        <c:axId val="215263872"/>
+        <c:axId val="167367808"/>
+        <c:axId val="167366016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215260544"/>
+        <c:axId val="167362944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215262336"/>
+        <c:crossAx val="167364480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215262336"/>
+        <c:axId val="167364480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,12 +1656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215260544"/>
+        <c:crossAx val="167362944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215263872"/>
+        <c:axId val="167366016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +1671,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215265664"/>
+        <c:crossAx val="167367808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="215265664"/>
+        <c:axId val="167367808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215263872"/>
+        <c:crossAx val="167366016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2633,7 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4844,7 +4840,7 @@
       </c>
       <c r="B182" s="10">
         <f ca="1">TODAY()</f>
-        <v>45084</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -4862,7 +4858,7 @@
       </c>
       <c r="B184">
         <f ca="1">MONTH(TODAY())</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -4917,7 +4913,7 @@
       </c>
       <c r="B190" s="11">
         <f ca="1">NOW()</f>
-        <v>45084.070201620372</v>
+        <v>45118.314949652777</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -4926,7 +4922,7 @@
       </c>
       <c r="B191">
         <f ca="1">WEEKDAY(B190,2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
